--- a/DB테이블.xlsx
+++ b/DB테이블.xlsx
@@ -1,24 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeeSeokwoon\Documents\카카오톡 받은 파일\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB5CDA0-4DAD-4584-ABD1-FA0CCDA94A4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{09572FC6-DF15-449D-8166-5AC47CA1135F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
-    <sheet name="클래스 명" sheetId="2" r:id="rId1"/>
+    <sheet name="member" sheetId="2" r:id="rId1"/>
+    <sheet name="comment" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'클래스 명'!$B$1:$E$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">comment!$B$1:$E$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">member!$B$1:$E$31</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>분류</t>
   </si>
@@ -68,11 +64,27 @@
     <t xml:space="preserve">사용자 ID </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memPw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 패스워드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -387,7 +399,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -439,7 +451,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -633,18 +645,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3469EAF5-8AB1-4F1C-9399-D03137BEC4B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -685,9 +697,15 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
@@ -859,7 +877,240 @@
       <c r="E31" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:E31" xr:uid="{56B2C030-AEF5-4F17-A251-EDBD21107257}"/>
+  <autoFilter ref="B1:E31"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="1.59765625" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:E31"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/DB테이블.xlsx
+++ b/DB테이블.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeeSeokwoon\Desktop\JavaSpring\JSP\spring_daelim_hobby\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C7C950-E846-4868-BE14-A6625526B298}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="2" r:id="rId1"/>
@@ -19,20 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>분류</t>
   </si>
@@ -78,13 +76,177 @@
   </si>
   <si>
     <t>사용자 패스워드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notNull,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memEmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memRegDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 가입 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸드폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 핸드폰 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memCity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">사용자 거주 시 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memCnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK,notnull,AutoIncrement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memRegion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 거주 도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호힌트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memPwHint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬럼 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(45)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(80)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varCHAR(45)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOW()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 비밀번호 힌트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.어릴때 별명/1. 가장 친한친구 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호답변</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memPwAns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 비밀번호 답변</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 답변</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -399,7 +561,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -451,7 +613,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -645,18 +807,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -666,9 +828,10 @@
     <col min="3" max="3" width="13.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="63.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,8 +844,11 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
@@ -695,189 +861,309 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F2" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
       <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="F4" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="F9" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F10" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:E31"/>
+  <autoFilter ref="B1:E31" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -885,7 +1171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1110,7 +1396,7 @@
       <c r="E31" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:E31"/>
+  <autoFilter ref="B1:E31" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/DB테이블.xlsx
+++ b/DB테이블.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeeSeokwoon\Desktop\JavaSpring\JSP\spring_daelim_hobby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C7C950-E846-4868-BE14-A6625526B298}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C7710A-2A13-4F99-9247-871B1DED81A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="2" r:id="rId1"/>
     <sheet name="comment" sheetId="4" r:id="rId2"/>
+    <sheet name="board" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">comment!$B$1:$E$31</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="98">
   <si>
     <t>분류</t>
   </si>
@@ -71,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사용자 패스워드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -240,6 +237,190 @@
   </si>
   <si>
     <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comm_cno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK,NU,AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글작성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comm_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글사용자 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 작성시 세션 유지된 VOMember.getMemID하여 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comm_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성한 게시글 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comm_regDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 작성날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글번호로 찾아가여 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 생성날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bdCno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK,NN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bdName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bdContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 본문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bdHit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bdTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bdDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 생성 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bdCategory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 카테고리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.Team/1.Tip/2.Free</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bdImgUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 첨부 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시용(</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외래키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnDelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CASCADE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comm_Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,7 +648,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -499,6 +680,12 @@
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -815,10 +1002,401 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:J31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="1.59765625" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.796875" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:E31" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -845,7 +1423,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -862,171 +1440,137 @@
         <v>3</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="28.8" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="F4" s="4" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="28.8" x14ac:dyDescent="0.4">
+      <c r="B7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
@@ -1163,240 +1707,290 @@
       <c r="F31" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:E31" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B1:E31" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:E31"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C6D856-EC91-40AA-8F20-4662F626BF4A}">
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="1.59765625" customWidth="1"/>
-    <col min="2" max="2" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="7"/>
+      <c r="D2" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:E31" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/DB테이블.xlsx
+++ b/DB테이블.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeeSeokwoon\Desktop\JavaSpring\JSP\spring_daelim_hobby\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\hobbyNotice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C7C950-E846-4868-BE14-A6625526B298}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="2" r:id="rId1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t>분류</t>
   </si>
@@ -240,13 +239,17 @@
   </si>
   <si>
     <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름 (닉네임) 추가해야함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -814,11 +817,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1046,7 +1049,9 @@
     <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
@@ -1163,7 +1168,7 @@
       <c r="F31" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:E31" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B1:E31"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1171,7 +1176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1396,7 +1401,7 @@
       <c r="E31" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:E31" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="B1:E31"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/DB테이블.xlsx
+++ b/DB테이블.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t>분류</t>
   </si>
@@ -106,7 +106,155 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>가입날짜</t>
+    <t>핸드폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 핸드폰 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memCity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">사용자 거주 시 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memCnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK,notnull,AutoIncrement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memRegion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 거주 도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호힌트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memPwHint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬럼 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(45)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(80)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varCHAR(45)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 비밀번호 힌트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.어릴때 별명/1. 가장 친한친구 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호답변</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memPwAns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 비밀번호 답변</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 답변</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(45)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년월일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memBirth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 생년월일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(45)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -114,135 +262,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사용자 가입 날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>핸드폰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memPhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 핸드폰 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memCity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">사용자 거주 시 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memCnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK,notnull,AutoIncrement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memRegion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 거주 도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호힌트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memPwHint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컬럼 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(45)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(80)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varCHAR(45)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOW()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATETIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 비밀번호 힌트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.어릴때 별명/1. 가장 친한친구 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호답변</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memPwAns</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 비밀번호 답변</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 답변</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름 (닉네임) 추가해야함</t>
+    <t>사용자 가입일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATATIME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -820,7 +844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -848,7 +872,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -865,73 +889,71 @@
         <v>3</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="F4" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
@@ -945,113 +967,127 @@
         <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>47</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="B13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
